--- a/src/output/4-analyzer/all-freq.xlsx
+++ b/src/output/4-analyzer/all-freq.xlsx
@@ -479,63 +479,63 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>operate system security</t>
+          <t>privacy</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>privacy</t>
+          <t>operate system security</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -572,11 +572,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>apply compute</t>
+          <t>electronic commerce</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -597,17 +597,17 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>electronic commerce</t>
+          <t>apply compute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -628,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>extra-functional property</t>
+          <t>information system application</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -665,7 +665,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>software organization</t>
+          <t>property</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -696,7 +696,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>it engineer</t>
+          <t>information system</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>information system application</t>
+          <t>extra-functional property</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -758,11 +758,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>information system</t>
+          <t>software organization</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -820,11 +820,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>it engineer</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -944,11 +944,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>overflow vulnerability</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -960,26 +960,26 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>overflow vulnerability</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -991,84 +991,84 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>network performance evaluation</t>
+          <t>network</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>network simulation</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>network simulation</t>
+          <t>network performance evaluation</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>malware mitigation</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1192,7 +1192,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>malware mitigation</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1223,7 +1223,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>web application security</t>
+          <t>web mine</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1254,7 +1254,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>intrusion/anomaly detection</t>
+          <t>web application security</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1285,7 +1285,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>web mine</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1316,7 +1316,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>intrusion/anomaly detection</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1347,7 +1347,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>web</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1409,7 +1409,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1440,7 +1440,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>electronic fund transfer</t>
+          <t>online bank</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1471,17 +1471,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>online bank</t>
+          <t>professional topic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1502,17 +1502,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>compute</t>
+          <t>electronic fund transfer</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1533,17 +1533,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>secure online transaction</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,17 +1564,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>professional topic</t>
+          <t>domain-specific security and privacy architecture</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1586,26 +1586,26 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>privacy policy</t>
+          <t>secure online transaction</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1626,17 +1626,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>domain-specific security and privacy architecture</t>
+          <t>compute</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1688,11 +1688,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>security service</t>
+          <t>multi-factor authentication</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1719,11 +1719,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>multi-factor authentication</t>
+          <t>authentication</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1750,11 +1750,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>authentication</t>
+          <t>security service</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -1967,11 +1967,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>data dissemination</t>
+          <t>simulation</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1989,20 +1989,20 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>simulation</t>
+          <t>data dissemination</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2020,20 +2020,20 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>software verification</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2054,17 +2054,17 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>software test</t>
+          <t>software defect analysis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2085,17 +2085,17 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>software creation</t>
+          <t>validation</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2116,17 +2116,17 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>software defect analysis</t>
+          <t>software test</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>software verification</t>
+          <t>software creation</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2184,11 +2184,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2209,17 +2209,17 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2240,17 +2240,17 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>analysis of algorithm</t>
+          <t>theory of computation</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2277,11 +2277,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>theory of computation</t>
+          <t>design</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>analysis of algorithm</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2339,11 +2339,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>network architecture</t>
+          <t>security protocol</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2370,11 +2370,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>security protocol</t>
+          <t>network architecture</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer architecture</t>
+          <t>distribute architecture</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2463,7 +2463,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>distribute architecture</t>
+          <t>computer system organization</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2494,7 +2494,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>computer system organization</t>
+          <t>peer-to-peer architecture</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2525,7 +2525,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>time-based model</t>
+          <t>attacker advantage</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2556,11 +2556,11 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>attacker advantage</t>
+          <t>double-spend attack</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>mathematical model</t>
+          <t>time-based model</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2618,104 +2618,104 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>double-spend attack</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>mathematical model</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>message authentication code</t>
+          <t>cryptography</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>19</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>cryptography</t>
+          <t>symmetric cryptography</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2727,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>symmetric cryptography</t>
+          <t>message authentication code</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2773,7 +2773,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">distribute denial-of-service </t>
+          <t>cooperative defense</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2804,7 +2804,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>cooperative defense</t>
+          <t xml:space="preserve">distribute denial-of-service </t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2835,7 +2835,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>statistic</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2897,7 +2897,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>network protocol</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2928,7 +2928,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>network protocol</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2959,11 +2959,11 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>empirical study</t>
+          <t>solidity</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2978,23 +2978,23 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>solidity</t>
+          <t>empirical study</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3052,11 +3052,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>security in hardware</t>
+          <t>formal approach</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -3068,22 +3068,22 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>theory of security</t>
+          <t>logic</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3114,11 +3114,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>logic</t>
+          <t>security in hardware</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3145,11 +3145,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>formal approach</t>
+          <t>theory of security</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3269,11 +3269,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>privacy-preserving protocol</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>privacy-preserving protocol</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3362,11 +3362,11 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>compute methodology</t>
+          <t>distribute compute methodology</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3393,11 +3393,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>distribute compute methodology</t>
+          <t>compute methodology</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>general conference proceed</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3517,7 +3517,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>general conference proceed</t>
+          <t>general</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3610,11 +3610,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>page strategy</t>
+          <t>block</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3703,11 +3703,11 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>block</t>
+          <t>page strategy</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>unsupervised learn</t>
+          <t>supervise learn</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3889,11 +3889,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>supervise learn</t>
+          <t>machine learning</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -3920,11 +3920,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>machine learning</t>
+          <t>unsupervised learn</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -3982,11 +3982,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>cryptographic protocol</t>
+          <t>pseudonymity</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4013,17 +4013,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>pseudonymity</t>
+          <t>anonymity</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4044,17 +4044,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>anonymity</t>
+          <t>computational complexity</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4075,11 +4075,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>computational complexity</t>
+          <t>cryptographic protocol</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4230,11 +4230,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>computation</t>
+          <t>distribute compute</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -4255,17 +4255,17 @@
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>autonomous robot</t>
+          <t>computation</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -4283,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>software bug</t>
+          <t>fault detection</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4323,7 +4323,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>fault tolerance</t>
+          <t>general-purpose model</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4354,11 +4354,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>software bug</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -4416,11 +4416,11 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>general-purpose model</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>edge compute</t>
+          <t>fault tolerance</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4478,11 +4478,11 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>distribute compute</t>
+          <t>autonomous robot</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>fault detection</t>
+          <t>edge compute</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4540,7 +4540,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>stateless protocol</t>
+          <t>digital linear tape</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4571,7 +4571,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>genesis</t>
+          <t>stateless protocol</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4602,7 +4602,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>digital linear tape</t>
+          <t>genesis</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4664,11 +4664,11 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>immutable object</t>
+          <t>domain-specific language</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4683,19 +4683,19 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>first-order predicate</t>
+          <t>first-order logic</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4726,7 +4726,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>domain-specific language</t>
+          <t xml:space="preserve">refinement </t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4757,7 +4757,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>first-order logic</t>
+          <t>automate theorem prove</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4788,7 +4788,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>program language</t>
+          <t>b-method</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4819,7 +4819,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>transfer function</t>
+          <t>type system</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4850,7 +4850,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>b-method</t>
+          <t xml:space="preserve">honeypot </t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4881,11 +4881,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>automate theorem prove</t>
+          <t>immutable object</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4900,19 +4900,19 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">honeypot </t>
+          <t>program language</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4943,7 +4943,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>principle of abstraction</t>
+          <t>transfer function</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4974,7 +4974,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>rodin tool</t>
+          <t>principle of abstraction</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5005,7 +5005,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">refinement </t>
+          <t>first-order predicate</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5036,7 +5036,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>type system</t>
+          <t>rodin tool</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5067,7 +5067,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>markov chain</t>
+          <t xml:space="preserve">sample </t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5098,42 +5098,42 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
         <v>2</v>
-      </c>
-      <c r="G151" t="n">
-        <v>6</v>
-      </c>
-      <c r="H151" t="n">
-        <v>12</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>direct acyclic graph</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -5160,11 +5160,11 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>numerical analysis</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -5179,23 +5179,23 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">sample </t>
+          <t>double-spending</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -5222,11 +5222,11 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>double-spending</t>
+          <t>selection algorithm</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -5253,11 +5253,11 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>selection algorithm</t>
+          <t>markov chain</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -5284,42 +5284,42 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>jot</t>
+          <t>cryptocurrency</t>
         </is>
       </c>
       <c r="B157" t="n">
+        <v>27</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
         <v>2</v>
       </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>malware</t>
+          <t xml:space="preserve">adversary </t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -5337,20 +5337,20 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">adversary </t>
+          <t>jot</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -5377,11 +5377,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>numerical analysis</t>
+          <t>direct acyclic graph</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -5439,11 +5439,11 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>commitment scheme</t>
+          <t>scalability</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -5461,20 +5461,20 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>amortize analysis</t>
+          <t>commitment scheme</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5501,11 +5501,11 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">overhead </t>
+          <t xml:space="preserve">shard </t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -5532,11 +5532,11 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">shard </t>
+          <t>recovery procedure</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -5563,11 +5563,11 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>scalability</t>
+          <t xml:space="preserve">overhead </t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5579,22 +5579,22 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>recovery procedure</t>
+          <t>amortize analysis</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5625,7 +5625,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>information sensitivity</t>
+          <t>holographic principle</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5656,7 +5656,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>data integrity</t>
+          <t>personally identifiable information</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5687,11 +5687,11 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>business logic</t>
+          <t>confidentiality</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>enterprise integration</t>
+          <t>enterprise system</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5749,7 +5749,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>spectral leakage</t>
+          <t>naruto shippuden: clash of ninja revolution 3</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5780,11 +5780,11 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>enterprise system</t>
+          <t>business logic</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -5842,7 +5842,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>confidentiality</t>
+          <t>information sensitivity</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5873,7 +5873,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>business process</t>
+          <t>data integrity</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5904,11 +5904,11 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>enterprise integration</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>naruto shippuden: clash of ninja revolution 3</t>
+          <t>spectral leakage</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5966,7 +5966,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>holographic principle</t>
+          <t>business process</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5997,11 +5997,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>personally identifiable information</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -6028,7 +6028,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>tamper resistance</t>
+          <t>pervasive informatics</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -6059,7 +6059,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>differential privacy</t>
+          <t>tamper resistance</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6090,7 +6090,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>pervasive informatics</t>
+          <t>trust third party</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6121,7 +6121,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>cryptographic hash function</t>
+          <t>differential privacy</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6152,7 +6152,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>trust third party</t>
+          <t>cryptographic hash function</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -6183,7 +6183,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>centralize compute</t>
+          <t>quantum information</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6214,7 +6214,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>quantum information</t>
+          <t>temporal logic</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6245,7 +6245,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>quantum algorithm</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6276,7 +6276,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>quantum algorithm</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6307,7 +6307,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>quantum compute</t>
+          <t>centralize compute</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -6369,7 +6369,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>temporal logic</t>
+          <t>quantum compute</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -6400,7 +6400,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>social network</t>
+          <t>proof-of-work system</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6462,11 +6462,11 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">value </t>
+          <t>attack</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6481,23 +6481,23 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t xml:space="preserve">value </t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6512,19 +6512,19 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>proof-of-work system</t>
+          <t>social network</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6586,7 +6586,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>markov chain monte carlo</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6617,7 +6617,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>markov chain monte carlo</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6648,11 +6648,11 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>brute-force search</t>
+          <t>antivirus software</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>marijuana abuse</t>
+          <t>protocol documentation</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6741,7 +6741,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>protocol documentation</t>
+          <t>brute-force attack</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -6772,11 +6772,11 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>antivirus software</t>
+          <t>brute-force search</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -6803,7 +6803,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>brute-force attack</t>
+          <t>marijuana abuse</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -6834,7 +6834,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>global network</t>
+          <t>essence</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -6865,7 +6865,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>essence</t>
+          <t>global network</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -6927,7 +6927,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>key derivation function</t>
+          <t>cryptonote</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -6958,11 +6958,11 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>public-key cryptography</t>
+          <t>key derivation function</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -6989,11 +6989,11 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>cryptonote</t>
+          <t>public-key cryptography</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -7051,11 +7051,11 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">lock </t>
+          <t>computer data storage</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
@@ -7082,7 +7082,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>software portability</t>
+          <t>computer performance</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7113,7 +7113,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>traction teampage</t>
+          <t>virtual machine</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7144,7 +7144,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>virtual machine</t>
+          <t>software portability</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -7175,11 +7175,11 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>computer data storage</t>
+          <t xml:space="preserve">lock </t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -7206,7 +7206,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>computer performance</t>
+          <t>traction teampage</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -7237,11 +7237,11 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">asynchrony </t>
+          <t>replay attack</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
@@ -7268,11 +7268,11 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>replay attack</t>
+          <t xml:space="preserve">asynchrony </t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -7361,7 +7361,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>home automation</t>
+          <t>population</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -7392,7 +7392,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>home automation</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -7423,7 +7423,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">rsa </t>
+          <t>modulus robot</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -7485,7 +7485,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>modulus robot</t>
+          <t xml:space="preserve">rsa </t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -7516,7 +7516,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>tablet dosage form</t>
+          <t>health fraud</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -7547,7 +7547,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>botnet</t>
+          <t>tablet computer</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -7609,11 +7609,11 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>smart city</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -7640,7 +7640,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>exponential</t>
+          <t>ephrin type-b receptor 1</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -7671,7 +7671,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>ephrin type-b receptor 1</t>
+          <t>exponential</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -7702,7 +7702,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>program paradigm</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -7733,7 +7733,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>smartphone</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -7764,7 +7764,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>real-time clock</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -7795,7 +7795,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>health fraud</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -7826,7 +7826,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>real-time clock</t>
+          <t>program paradigm</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -7888,7 +7888,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>smart device</t>
+          <t>tablet dosage form</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -7950,7 +7950,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>smartphone</t>
+          <t>botnet</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -7981,7 +7981,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>tablet computer</t>
+          <t>smart device</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8012,11 +8012,11 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>smart city</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8074,11 +8074,11 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>zero-knowledge proof</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -8105,11 +8105,11 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>zero-knowledge proof</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -8167,7 +8167,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>moral hazard</t>
+          <t>mortar method</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -8198,7 +8198,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>unintended consequence</t>
+          <t>moral hazard</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -8229,7 +8229,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>mortar method</t>
+          <t>unintended consequence</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -8446,7 +8446,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>block propagation</t>
+          <t>peer-to-peer network</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -8477,7 +8477,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>security analysis</t>
+          <t>eclipse attack</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -8496,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -8508,7 +8508,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>eclipse attack</t>
+          <t>security analysis</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer network</t>
+          <t>block propagation</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -8570,7 +8570,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>digital money</t>
+          <t>p2p transaction</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -8601,7 +8601,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>digital wallet</t>
+          <t>bitcoin security</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -8632,7 +8632,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>p2p transaction</t>
+          <t>digital wallet</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -8663,7 +8663,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>bitcoin security</t>
+          <t>digital money</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -8694,7 +8694,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>decentralize payment system</t>
+          <t>bitcoin cyberattacks</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -8725,7 +8725,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>bitcoin cyberattacks</t>
+          <t>decentralize payment system</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -8818,7 +8818,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>arbitration mechanism</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -8849,7 +8849,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>arbitration mechanism</t>
+          <t>conflict check protocol</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -8880,7 +8880,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>conflict check protocol</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -8911,7 +8911,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>miner</t>
+          <t>mine process</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -8942,7 +8942,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>mine process</t>
+          <t>miner</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -8973,7 +8973,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>block withhold</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -8989,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>decentralize</t>
+          <t>block withhold</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -9221,11 +9221,11 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>proof-of-stake</t>
+          <t>software defect</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>1</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -9252,11 +9252,11 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>governance</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -9283,11 +9283,11 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>proof-of-stake</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -9302,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -9314,11 +9314,11 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>software defect</t>
+          <t>governance</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -9376,7 +9376,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>markov model</t>
+          <t>air gap wallet</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -9407,7 +9407,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>air gap storage</t>
+          <t>markov model</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -9438,7 +9438,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>channel exfiltration</t>
+          <t>key extraction</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -9469,7 +9469,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>private key storage</t>
+          <t>channel exfiltration</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -9500,7 +9500,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>key extraction</t>
+          <t>air gap storage</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -9531,7 +9531,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>air gap wallet</t>
+          <t>attack surface</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -9562,7 +9562,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>attack surface</t>
+          <t>private key storage</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -9748,7 +9748,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>geth</t>
+          <t>defence</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -9779,7 +9779,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>vulnerability analysis</t>
+          <t>geth</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -9810,7 +9810,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>defence</t>
+          <t>vulnerability analysis</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -9934,7 +9934,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>auction</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -9965,7 +9965,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>auction</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -10089,7 +10089,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>security practice</t>
+          <t>ibc</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -10120,7 +10120,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>ibc</t>
+          <t>tendermint</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -10151,7 +10151,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>tendermint</t>
+          <t>security practice</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -10213,11 +10213,11 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>sharding</t>
+          <t>security deposit</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -10235,20 +10235,20 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>security deposit</t>
+          <t>sharding</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -10266,10 +10266,10 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -10337,11 +10337,11 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>selfish miner</t>
+          <t>block withhold attack</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -10368,11 +10368,11 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>block withhold attack</t>
+          <t>selfish miner</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -10461,7 +10461,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>secure compute</t>
+          <t>dependability</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -10492,7 +10492,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>dependability</t>
+          <t>secure compute</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -10616,11 +10616,11 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>pool mine</t>
+          <t>coin hop attack</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G329" t="n">
         <v>0</v>
@@ -10647,11 +10647,11 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>coin hop attack</t>
+          <t>pool mine</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
@@ -10678,7 +10678,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>uncle block</t>
+          <t>stubborn mine</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -10709,7 +10709,7 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>stubborn mine</t>
+          <t>uncle block</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -10864,7 +10864,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>byzantine general problem</t>
+          <t>delay attack</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -10895,7 +10895,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>delay attack</t>
+          <t>partition</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -10926,7 +10926,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>partition</t>
+          <t>byzantine general problem</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -11019,7 +11019,7 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>gas consumption</t>
+          <t>atomicity violation</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -11050,11 +11050,11 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>vulnerability trigger</t>
+          <t>fuzzer</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -11081,11 +11081,11 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>fuzzing</t>
+          <t>security vulnerability</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -11112,7 +11112,7 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>atomicity violation</t>
+          <t>vulnerability trigger</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -11143,11 +11143,11 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>security vulnerability</t>
+          <t>fuzzing</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -11174,11 +11174,11 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>fuzzer</t>
+          <t>gas consumption</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>incentive</t>
+          <t>crowd-sensing</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -11267,7 +11267,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>data report</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -11298,7 +11298,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>reward mechanism</t>
+          <t>blockchain.</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -11329,7 +11329,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>blockchain.</t>
+          <t>zksnarks</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -11391,7 +11391,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>crowd-sensing</t>
+          <t>data report</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -11422,7 +11422,7 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>zksnarks</t>
+          <t>reward mechanism</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -11453,11 +11453,11 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>digital transaction</t>
+          <t>behavior monitor</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -11484,11 +11484,11 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>behavior monitor</t>
+          <t>digital transaction</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -11732,7 +11732,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>universal-composability</t>
+          <t>adaptive-security</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -11794,7 +11794,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>adaptive-security</t>
+          <t>universal-composability</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -11825,7 +11825,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>intrusion detection</t>
+          <t>goldfinger attack</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -11856,7 +11856,7 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>goldfinger attack</t>
+          <t>statistical significance</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -11887,7 +11887,7 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>statistical significance</t>
+          <t>intrusion detection</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -11918,7 +11918,7 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>network model</t>
+          <t>consensus security</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -11949,7 +11949,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>consensus security</t>
+          <t>network model</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -12011,7 +12011,7 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>data provenance</t>
+          <t>blockchain security</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -12042,11 +12042,11 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>cloud compute</t>
+          <t>block mine</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -12073,11 +12073,11 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>blockchain security</t>
+          <t>cloud compute</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -12104,7 +12104,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>block mine</t>
+          <t>data provenance</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -12166,11 +12166,11 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>system architecture</t>
+          <t>fuzz test</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -12185,10 +12185,10 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -12197,11 +12197,11 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>fuzz test</t>
+          <t>system architecture</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -12216,10 +12216,10 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -12352,7 +12352,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>mine pool selection</t>
+          <t>replicator dynamic</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -12414,7 +12414,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>replicator dynamic</t>
+          <t>mine pool selection</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -12569,7 +12569,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>industrial internet of thing security</t>
+          <t>industrial internet of thing privacy</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -12600,7 +12600,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>industrial internet of thing privacy</t>
+          <t>industrial internet of thing security</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -12662,7 +12662,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>social engineer</t>
+          <t>phishing</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -12693,7 +12693,7 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>phishing</t>
+          <t>social engineer</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -12724,7 +12724,7 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>network center operation</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -12755,7 +12755,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>supply chain</t>
+          <t>immutability</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -12786,7 +12786,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>logistics</t>
+          <t>supply chain</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -12848,7 +12848,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>immutability</t>
+          <t>network center operation</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -12972,11 +12972,11 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -13003,11 +13003,11 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -13158,7 +13158,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>logic risk location</t>
+          <t>topologicalanalysis</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -13189,7 +13189,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>topologicalanalysis</t>
+          <t>security assurance</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -13220,7 +13220,7 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>security assurance</t>
+          <t>logic risk location</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -13251,7 +13251,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>insider threat</t>
+          <t>collaborative intrusion detection</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -13313,7 +13313,7 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>collaborative intrusion detection</t>
+          <t>insider threat</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -13375,7 +13375,7 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>privacy solution</t>
+          <t>security solution</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -13406,11 +13406,11 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>security solution</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -13422,10 +13422,10 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H419" t="n">
         <v>1</v>
@@ -13437,11 +13437,11 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>privacy solution</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -13453,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H420" t="n">
         <v>1</v>
@@ -13685,7 +13685,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>microgrid</t>
+          <t>energy transaction</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -13716,7 +13716,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>energy transaction</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -13747,7 +13747,7 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>microgrid</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -13840,11 +13840,11 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>security architecture</t>
+          <t>integrity</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F433" t="n">
         <v>0</v>
@@ -13871,11 +13871,11 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>integrity</t>
+          <t>internal attack</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F434" t="n">
         <v>0</v>
@@ -13933,7 +13933,7 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>internal attack</t>
+          <t>maker-checker</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -13964,7 +13964,7 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>maker-checker</t>
+          <t>security architecture</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -13995,11 +13995,11 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>program analysis</t>
+          <t>decompilation</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -14026,11 +14026,11 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>decompilation</t>
+          <t>program analysis</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -14088,7 +14088,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">carrier sense multiple access/collision avoidance </t>
+          <t>double-spending attack</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -14119,7 +14119,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>double-spending attack</t>
+          <t xml:space="preserve">carrier sense multiple access/collision avoidance </t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -14150,7 +14150,7 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>cybersecurity framework</t>
+          <t>criterion rank</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -14181,7 +14181,7 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>cybersecurity vulnerability assessment</t>
+          <t>cybersecurity framework</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -14212,7 +14212,7 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>cyber risk mitigation</t>
+          <t>cybersecurity vulnerability assessment</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -14243,7 +14243,7 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>criterion rank</t>
+          <t>cyber risk mitigation</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -14274,7 +14274,7 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>hypergeometric distribution</t>
+          <t>failure probability</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -14305,7 +14305,7 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>failure probability</t>
+          <t>hypergeometric distribution</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -14336,7 +14336,7 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>access control list</t>
+          <t>archiecture</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -14367,7 +14367,7 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>archiecture</t>
+          <t>access control list</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -14615,7 +14615,7 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>mtc confirmation mechanism</t>
+          <t>dynamic difficulty factor</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -14646,7 +14646,7 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>dynamic difficulty factor</t>
+          <t>mtc confirmation mechanism</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -14739,11 +14739,11 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>organisation.</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -14801,11 +14801,11 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>organisation.</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -15111,7 +15111,7 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>software lifecycle</t>
+          <t>software engineer</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -15142,7 +15142,7 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>software engineer</t>
+          <t>software lifecycle</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -15173,11 +15173,11 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>static analysis</t>
+          <t>vulnerability detection</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -15204,11 +15204,11 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>vulnerability detection</t>
+          <t>static analysis</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -15390,7 +15390,7 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>transaction</t>
+          <t>embed system</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -15483,7 +15483,7 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>embed system</t>
+          <t>transaction</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -15545,7 +15545,7 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>real-time consensus</t>
+          <t xml:space="preserve">byzantine fault-tolerant </t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -15576,7 +15576,7 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">byzantine fault-tolerant </t>
+          <t>real-time consensus</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -15607,7 +15607,7 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>cyber risk</t>
+          <t>artificial intelligence</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -15638,7 +15638,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>cyber risk</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -15762,11 +15762,11 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>hash</t>
+          <t>immutable</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -15787,17 +15787,17 @@
         <v>1</v>
       </c>
       <c r="I495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>immutable</t>
+          <t>hash</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -15818,13 +15818,13 @@
         <v>1</v>
       </c>
       <c r="I496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>singular curve</t>
+          <t>fault attack</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -15886,7 +15886,7 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>invalid curve attack</t>
+          <t>supersingular curve</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -15917,7 +15917,7 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>fault attack</t>
+          <t>invalid curve attack</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -15948,7 +15948,7 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>openssl</t>
+          <t>singular curve</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -15979,7 +15979,7 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>supersingular curve</t>
+          <t>openssl</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -16010,7 +16010,7 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>blockchain;-privacy</t>
+          <t>hardware</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -16041,7 +16041,7 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>hardware</t>
+          <t>blockchain;-privacy</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -16134,7 +16134,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">peer-to-peer </t>
+          <t xml:space="preserve">block chain </t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -16165,7 +16165,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">block chain </t>
+          <t xml:space="preserve">peer-to-peer </t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -16196,7 +16196,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>protocol security</t>
+          <t>censorship attack</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -16227,7 +16227,7 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>censorship attack</t>
+          <t>protocol security</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -16382,7 +16382,7 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>double threshold energy detection</t>
+          <t>ssdf attack</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -16413,7 +16413,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>ssdf attack</t>
+          <t>double threshold energy detection</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -16444,7 +16444,7 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>smartphone application</t>
+          <t>owasp mobile</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -16475,7 +16475,7 @@
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>owasp mobile</t>
+          <t>smartphone application</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -16506,7 +16506,7 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>tangle</t>
+          <t>algor</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -16537,7 +16537,7 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>algor</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -16568,7 +16568,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>hyperledger</t>
+          <t>00-01</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -16599,7 +16599,7 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>00-01</t>
+          <t>hyperledger</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -16723,7 +16723,7 @@
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>protection</t>
+          <t>input filter</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -16754,7 +16754,7 @@
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>input filter</t>
+          <t>protection</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -16785,7 +16785,7 @@
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>debit card</t>
+          <t>user perception</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -16878,7 +16878,7 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>debit card</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -16909,7 +16909,7 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>user perception</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -16940,7 +16940,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>electrum</t>
+          <t>cryptocurrency wallet</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -16971,7 +16971,7 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>multibit hd</t>
+          <t>bitcoins</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -17002,7 +17002,7 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency wallet</t>
+          <t>electrum</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -17033,7 +17033,7 @@
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>bitcoins</t>
+          <t>bitcoin wallet forensics</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -17064,7 +17064,7 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>bitcoin wallet forensics</t>
+          <t>bitcoin wallet security</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -17095,7 +17095,7 @@
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>bitcoin wallet security</t>
+          <t>multibit hd</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -17188,7 +17188,7 @@
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer system</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -17250,7 +17250,7 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>peer-to-peer system</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -17343,7 +17343,7 @@
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>decentralize peer-to-peer</t>
+          <t>public ledger</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -17374,7 +17374,7 @@
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>public ledger</t>
+          <t>decentralize peer-to-peer</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -17405,7 +17405,7 @@
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>decentralize autonomous organization</t>
+          <t>fintech</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -17436,7 +17436,7 @@
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>seconomics vulnerability</t>
+          <t>decentralize autonomous organization</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -17467,7 +17467,7 @@
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>fintech</t>
+          <t>seconomics vulnerability</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -17529,7 +17529,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>risk engineer</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -17591,7 +17591,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>risk engineer</t>
+          <t>ontology</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -17622,7 +17622,7 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>ontology</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -17994,11 +17994,11 @@
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>lattice</t>
+          <t>crypto</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -18025,7 +18025,7 @@
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>hide number problem</t>
+          <t>ecdsa</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -18056,7 +18056,7 @@
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>crypto</t>
+          <t>hide number problem</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -18087,11 +18087,11 @@
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>ecdsa</t>
+          <t>lattice</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -18149,7 +18149,7 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>collusion</t>
+          <t>offline channel</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -18180,7 +18180,7 @@
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>offline channel</t>
+          <t>banzhaf index</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -18211,7 +18211,7 @@
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>banzhaf index</t>
+          <t>collusion</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -18242,7 +18242,7 @@
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>metal node</t>
+          <t>subchain</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -18273,7 +18273,7 @@
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>subchain</t>
+          <t>honest miner</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -18304,7 +18304,7 @@
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>honest miner</t>
+          <t>metal node</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -18335,7 +18335,7 @@
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>design pattern</t>
+          <t>finite state machine</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -18366,7 +18366,7 @@
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>automatic code generation</t>
+          <t>design pattern</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -18397,7 +18397,7 @@
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>finite state machine</t>
+          <t>automatic code generation</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -18552,7 +18552,7 @@
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>om walk</t>
+          <t>catalan number</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -18583,7 +18583,7 @@
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>catalan number</t>
+          <t>om walk</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -18645,7 +18645,7 @@
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>distribute computation</t>
+          <t>client puzzle</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -18707,7 +18707,7 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>client puzzle</t>
+          <t>distribute computation</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -18738,7 +18738,7 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>efficient storage</t>
+          <t>gpu process</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -18769,7 +18769,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>gpu process</t>
+          <t>efficient storage</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -18800,7 +18800,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>consensus validation</t>
+          <t>merkle tree</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -18831,7 +18831,7 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>high performance compute</t>
+          <t>consensus validation</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -18862,7 +18862,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>merkle tree</t>
+          <t>high performance compute</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -18986,7 +18986,7 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>softfork transition scheme</t>
+          <t>compromise hash</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -19017,7 +19017,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>compromise hash</t>
+          <t>softfork transition scheme</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -19110,7 +19110,7 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>large deviation theory</t>
+          <t>correlate equilibrium</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -19172,7 +19172,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>correlate equilibrium</t>
+          <t>large deviation theory</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -19451,7 +19451,7 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>concert organizer</t>
+          <t>ticket owner</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -19482,7 +19482,7 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>invalid ticket</t>
+          <t>concert organizer</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -19513,7 +19513,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>ticket owner</t>
+          <t>invalid ticket</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -19544,7 +19544,7 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>contrast of attack</t>
+          <t>security detection model</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -19575,7 +19575,7 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>security detection model</t>
+          <t>contrast of attack</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -19668,7 +19668,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>decentralize sanitizers</t>
+          <t>access control encryption</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -19699,7 +19699,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>access control encryption</t>
+          <t>user privacy</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -19730,7 +19730,7 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>user privacy</t>
+          <t>decentralize sanitizers</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -19792,7 +19792,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>vulnerability injection</t>
+          <t>modifier issue</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -19823,7 +19823,7 @@
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>gas limit a a kill criterion</t>
+          <t>mutation test</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -19854,7 +19854,7 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>modifier issue</t>
+          <t>vulnerability injection</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -19885,7 +19885,7 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>mutation test</t>
+          <t>gas limit a a kill criterion</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -20040,7 +20040,7 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>sleepy model</t>
+          <t>offline player</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -20071,7 +20071,7 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>offline player</t>
+          <t>sleepy model</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -20102,7 +20102,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>learn with error</t>
+          <t>elliptic curve</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -20133,7 +20133,7 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>elliptic curve</t>
+          <t>learn with error</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -20226,7 +20226,7 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>garch</t>
+          <t>graph analysis</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -20257,7 +20257,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>intraday financial risk</t>
+          <t>garch</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -20288,7 +20288,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>graph analysis</t>
+          <t>intraday financial risk</t>
         </is>
       </c>
       <c r="B641" t="n">

--- a/src/output/4-analyzer/all-freq.xlsx
+++ b/src/output/4-analyzer/all-freq.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,25 +442,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -476,18 +486,24 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -498,97 +514,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>apply compute</t>
+          <t>digital cash</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>digital cash</t>
+          <t>electronic commerce</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>electronic commerce</t>
+          <t>apply compute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -604,15 +644,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -629,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -638,17 +684,23 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>software security</t>
+          <t>application security</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -657,38 +709,50 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>application security</t>
+          <t>software security</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -710,9 +774,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,45 +805,57 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
-        <v>14</v>
+      <c r="I13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -782,13 +864,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>17</v>
       </c>
-      <c r="G14" t="n">
-        <v>8</v>
+      <c r="I14" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -801,18 +889,24 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -823,7 +917,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -832,12 +926,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -860,9 +960,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -888,23 +994,29 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>privacy policy</t>
+          <t>domain-specific security and privacy architecture</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -914,22 +1026,28 @@
       </c>
       <c r="G19" t="n">
         <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>technology policy</t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -938,48 +1056,60 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>domain-specific security and privacy architecture</t>
+          <t>professional topic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>compute</t>
+          <t>technology policy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -988,23 +1118,29 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>professional topic</t>
+          <t>compute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1013,6 +1149,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1023,13 +1165,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1038,6 +1180,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1063,6 +1211,12 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,12 +1236,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,9 +1270,15 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1138,6 +1304,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1163,6 +1335,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1188,6 +1366,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1204,15 +1388,21 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,22 +1419,28 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>computer system organization</t>
+          <t>distribute architecture</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1254,22 +1450,28 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>distribute architecture</t>
+          <t>computer system organization</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1279,40 +1481,52 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>P2P</t>
+          <t>network property</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,20 +1549,26 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>network property</t>
+          <t>P2P</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1360,9 +1580,15 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1373,21 +1599,27 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>14</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>21</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1401,29 +1633,35 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>message authentication code</t>
+          <t>cryptography</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1432,23 +1670,29 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>hash</t>
+          <t>message authentication code</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1457,37 +1701,49 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>cryptography</t>
+          <t>hash</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1504,15 +1760,21 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,48 +1794,60 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>formal approach</t>
+          <t>logic</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>logic</t>
+          <t>formal approach</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1582,13 +1856,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1607,12 +1887,18 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1635,9 +1921,15 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1654,15 +1946,21 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1679,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1688,6 +1986,12 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,9 +2014,15 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,9 +2045,15 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,20 +2076,26 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>DL/ML</t>
+          <t>anomaly detection</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1782,23 +2104,29 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>anomaly detection</t>
+          <t>DL/ML</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1807,12 +2135,18 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1829,15 +2163,21 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1848,7 +2188,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1857,12 +2197,18 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1879,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1888,42 +2234,54 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1932,23 +2290,29 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>computation</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1960,20 +2324,26 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>distribute compute</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1985,20 +2355,26 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>distribute compute</t>
+          <t>computation</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2010,10 +2386,16 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2035,9 +2417,15 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2057,48 +2445,60 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>direct acyclic graph</t>
+          <t>cryptocurrency</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>12</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>malware</t>
+          <t>selection algorithm</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2110,23 +2510,29 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>double-spending</t>
+          <t>direct acyclic graph</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2135,20 +2541,26 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>JoT</t>
+          <t>double-spending</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2157,48 +2569,60 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency</t>
+          <t>IoTa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>selection algorithm</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2210,20 +2634,26 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>IoTa</t>
+          <t>JoT</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2232,29 +2662,35 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>scalability</t>
+          <t>commitment scheme</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2263,17 +2699,23 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">shard </t>
+          <t>scalability</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2288,13 +2730,19 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>commitment scheme</t>
+          <t xml:space="preserve">shard </t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2304,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2313,6 +2761,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,19 +2786,25 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>business logic</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2360,16 +2820,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>business logic</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2382,12 +2848,18 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,20 +2882,26 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>antivirus software</t>
+          <t>digital signature</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2435,35 +2913,47 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>digital signature</t>
+          <t>antivirus software</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2482,12 +2972,18 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2507,12 +3003,18 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2532,12 +3034,18 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2557,12 +3065,18 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,23 +3096,29 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>dust attack</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2607,23 +3127,29 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>dust attack</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2632,19 +3158,25 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>eclipse attack</t>
+          <t>security analysis</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2657,12 +3189,18 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,19 +3220,25 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>security analysis</t>
+          <t>eclipse attack</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2710,9 +3254,15 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,15 +3279,21 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
         <v>8</v>
       </c>
-      <c r="G92" t="n">
+      <c r="I92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2757,12 +3313,18 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,19 +3344,25 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>decentralize</t>
+          <t>block withhold</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2807,62 +3375,80 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>PoW</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>block withhold</t>
+          <t>51% attack</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2882,23 +3468,29 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="n">
         <v>4</v>
       </c>
-      <c r="G98" t="n">
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>51% attack</t>
+          <t>PoW</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2907,13 +3499,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2926,18 +3524,24 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,15 +3558,21 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
         <v>8</v>
       </c>
-      <c r="G101" t="n">
+      <c r="I101" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2979,15 +3589,21 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3004,15 +3620,21 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3029,15 +3651,21 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3057,12 +3685,18 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3082,12 +3716,18 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3110,9 +3750,15 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,12 +3778,18 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3157,12 +3809,18 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3176,18 +3834,24 @@
         <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3210,9 +3874,15 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,12 +3902,18 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="n">
         <v>4</v>
       </c>
-      <c r="G112" t="n">
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,15 +3930,21 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3279,15 +3961,21 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3313,6 +4001,12 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +4026,18 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3357,12 +4057,18 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,12 +4088,18 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,9 +4122,15 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3435,9 +4153,15 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,15 +4178,21 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3482,12 +4212,18 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3510,9 +4246,15 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3532,12 +4274,18 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,26 +4302,32 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>information security</t>
+          <t>distribute</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3582,23 +4336,29 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>distribute</t>
+          <t>information security</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3607,13 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3632,12 +4398,18 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,9 +4432,15 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,12 +4460,18 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3701,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3713,6 +4497,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3735,9 +4525,15 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3760,9 +4556,15 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,12 +4584,18 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3810,9 +4618,15 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,6 +4652,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3857,12 +4677,18 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,9 +4711,15 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3907,12 +4739,18 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3935,9 +4773,15 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,12 +4801,18 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3985,9 +4835,15 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
